--- a/Exclusions.xlsx
+++ b/Exclusions.xlsx
@@ -389,9 +389,6 @@
     <t>DOI;Title</t>
   </si>
   <si>
-    <t>A216/217</t>
-  </si>
-  <si>
     <t>C390/C391</t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>Exclude</t>
+  </si>
+  <si>
+    <t>A216/A217</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
         <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -2149,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -2195,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2241,7 +2241,7 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,10 +2272,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" t="s">
         <v>121</v>
-      </c>
-      <c r="C67" t="s">
-        <v>122</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
